--- a/medicine/Enfance/Roald_Dahl/Roald_Dahl.xlsx
+++ b/medicine/Enfance/Roald_Dahl/Roald_Dahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roald Dahl, né le 13 septembre 1916 à Llandaff au pays de Galles et mort le 23 novembre 1990 à Oxford en Angleterre, est un écrivain britannique et scénariste, auteur de romans et de nouvelles qui s'adressent aussi bien aux enfants qu'aux adultes, mais mieux connu pour ses ouvrages de littérature d'enfance et de jeunesse.
@@ -515,79 +527,372 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Né au pays de Galles de parents norvégiens, armateurs à la grande pêche, Roald Dahl connaît une enfance et une jeunesse assez difficiles. En 1920, à l'âge de 3 ans, il perd sa sœur aînée et son père en quelques semaines. Sa mère décide de rester au pays de Galles afin de faire bénéficier ses enfants des écoles britanniques que sa famille considère comme excellentes. Il fréquente ainsi l'école paroissiale de Llandaff au pays de Galles (qui lui fournira matière à l'une de ses nouvelles de souvenirs d'enfance dans le recueil Moi, Boy), l'internat du collège de Weston-Super-Mare, puis celui de la public school de Repton. Sa mère s'organise pour passer les grandes vacances en famille en Norvège, laissant à ses enfants une large autonomie dont ils profitent pour « robinsonner » en bateau dans les îlots et le long des fjords. Très grand, taillé en athlète, Dahl excelle dans divers sports : squash, gymnastique, rugby… et est aussi un photographe amateur de talent.
-Premiers emplois et début de la guerre en Afrique
-Il s'engage dans une compagnie pétrolière à 17 ans et part en Tanzanie, en Afrique, à 20 ans, employé par la compagnie Shell. Pendant la Seconde Guerre mondiale, il s'engage d'abord dans l'armée où on lui confie une compagnie de tirailleurs indigènes (African Rifles), chargée d'arrêter et d'interner les colons allemands du Kenya et de Tanzanie qui ont formé un convoi motorisé et fuient vers la colonie portugaise du Mozambique. Il se rend ensuite à Nairobi, au Kenya, pour s'engager dans la Royal Air Force (RAF) et devenir pilote de chasse. Après quelques mois d'entraînement sur biplan Tiger Moth, il est affecté à l'escadrille 80.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né au pays de Galles de parents norvégiens, armateurs à la grande pêche, Roald Dahl connaît une enfance et une jeunesse assez difficiles. En 1920, à l'âge de 3 ans, il perd sa sœur aînée et son père en quelques semaines. Sa mère décide de rester au pays de Galles afin de faire bénéficier ses enfants des écoles britanniques que sa famille considère comme excellentes. Il fréquente ainsi l'école paroissiale de Llandaff au pays de Galles (qui lui fournira matière à l'une de ses nouvelles de souvenirs d'enfance dans le recueil Moi, Boy), l'internat du collège de Weston-Super-Mare, puis celui de la public school de Repton. Sa mère s'organise pour passer les grandes vacances en famille en Norvège, laissant à ses enfants une large autonomie dont ils profitent pour « robinsonner » en bateau dans les îlots et le long des fjords. Très grand, taillé en athlète, Dahl excelle dans divers sports : squash, gymnastique, rugby… et est aussi un photographe amateur de talent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premiers emplois et début de la guerre en Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'engage dans une compagnie pétrolière à 17 ans et part en Tanzanie, en Afrique, à 20 ans, employé par la compagnie Shell. Pendant la Seconde Guerre mondiale, il s'engage d'abord dans l'armée où on lui confie une compagnie de tirailleurs indigènes (African Rifles), chargée d'arrêter et d'interner les colons allemands du Kenya et de Tanzanie qui ont formé un convoi motorisé et fuient vers la colonie portugaise du Mozambique. Il se rend ensuite à Nairobi, au Kenya, pour s'engager dans la Royal Air Force (RAF) et devenir pilote de chasse. Après quelques mois d'entraînement sur biplan Tiger Moth, il est affecté à l'escadrille 80.
 Cette escadrille est équipée d'avions obsolètes, les biplans Gloster Gladiator (les monoplans modernes type Hurricane ou Spitfire étant alors réservés à la défense des îles britanniques ), et combat en Égypte contre des escadrilles italiennes équipées de biplans Fiat CR.42 Falco tout aussi démodés. Lors d'un vol pour rejoindre son escadrille, il échappe de peu à la mort. Suivant des instructions de vol erronées, il se retrouve à court d'essence à la nuit tombante. Contraint à un atterrissage forcé dans un no man's land rocailleux entre les troupes anglaises et celles de Rodolfo Graziani, son appareil capote à l'atterrissage et prend feu. Souffrant de brûlures graves, d'une fracture du crâne et devenu temporairement aveugle, il sera traité pendant plusieurs mois à l'hôpital anglo-suisse d'Alexandrie (cf. nouvelle A Piece of Cake, un de ses premiers écrits).
-Guerre en Grèce et en Égypte
-Après s'être rétabli, il est déclaré apte à voler, et on lui confie un Hurricane sur lequel il ne peut effectuer que quelques heures d'entraînement avant d'être convoyé vers son escadrille en Grèce où il combat héroïquement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guerre en Grèce et en Égypte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être rétabli, il est déclaré apte à voler, et on lui confie un Hurricane sur lequel il ne peut effectuer que quelques heures d'entraînement avant d'être convoyé vers son escadrille en Grèce où il combat héroïquement.
 La situation en Grèce est alors totalement asymétrique. Venue au secours des armées mussoliniennes, la Luftwaffe aligne plusieurs centaines d'avions de chasse Messerschmitt 109 et de bombardiers Stuka contre quelques dizaines d'avions anglais et une aviation grecque équipée d'appareils totalement dépassés. L'escadrille 80, en infériorité numérique criante, se distingue durant la bataille d'Athènes, au cours de laquelle l'as Marmaduke Pattle est abattu.
 Dahl évacue la Grèce avec les restes de son escadrille, ayant plusieurs victoires aériennes à son crédit.
 De retour en Égypte en mai 1941, il prend part à la campagne de Syrie, combattant l'aviation française du régime de Vichy. Il abat un Potez 630 français et un Junkers Ju 88, participe à de nombreuses missions de mitraillage au sol des aérodromes vichystes. Toutefois, il souffre de plus en plus de douleurs cérébrales et d'évanouissements lors des manœuvres rapides, une conséquence de son crash de septembre 1940. Les médecins militaires le déclarent inapte au combat aérien.
-Diplomatie et premiers récits
-Envoyé en mission aux États-Unis, notamment pour convaincre les Américains d'intervenir dans le conflit, il fait la connaissance de l'écrivain américain C. S. Forester, qui le pousse à écrire, et de Ian Fleming, espion britannique qui deviendra l'auteur des James Bond. Il travaille à contrer l'influence du mouvement isolationniste America First et c'est à ce titre qu'il publie ses récits de guerre dans des magazines comme Harper's, Ladies Home Journal, Saturday Evening Post.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diplomatie et premiers récits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Envoyé en mission aux États-Unis, notamment pour convaincre les Américains d'intervenir dans le conflit, il fait la connaissance de l'écrivain américain C. S. Forester, qui le pousse à écrire, et de Ian Fleming, espion britannique qui deviendra l'auteur des James Bond. Il travaille à contrer l'influence du mouvement isolationniste America First et c'est à ce titre qu'il publie ses récits de guerre dans des magazines comme Harper's, Ladies Home Journal, Saturday Evening Post.
 Il travaille pour le service de renseignements MI6, sous la houlette du maître espion William Stephenson, mais tient en piètre estime le personnel diplomatique anglais, stupéfait du décalage entre les conditions du front et la vie aux États-Unis encore neutres : « J'arrivais d'un monde en guerre, où les hommes se faisaient tuer, j'avais volé d'atrocité en atrocité et je me retrouvais dans une cocktail-party américaine d'avant-guerre. »
-Cette mission l'amène à user de ses charmes (il est grand, jeune, très sportif, et très spirituel, comme l'attestent ses premières nouvelles) pour séduire des femmes d'influence dans la haute société américaine. C'est donc dans le cadre de ce « service commandé » qu'il aura une liaison avec Clare Boothe Luce, ancienne actrice, députée républicaine conservatrice au Congrès des États-Unis, épouse du très influent patron du groupe de presse magazine Time Life, Henry Luce, et amie personnelle de Soong May-ling, épouse (fort influente elle aussi) du général Tchang Kaï-chek, pion essentiel de la diplomatie américaine en Chine[1]. Une récente biographie révèle qu'il se plaignit à son officier traitant car les exigences physiques de la dame étaient à la limite de son endurance personnelle… et se vit intimer l'injonction de continuer coûte que coûte[1].
+Cette mission l'amène à user de ses charmes (il est grand, jeune, très sportif, et très spirituel, comme l'attestent ses premières nouvelles) pour séduire des femmes d'influence dans la haute société américaine. C'est donc dans le cadre de ce « service commandé » qu'il aura une liaison avec Clare Boothe Luce, ancienne actrice, députée républicaine conservatrice au Congrès des États-Unis, épouse du très influent patron du groupe de presse magazine Time Life, Henry Luce, et amie personnelle de Soong May-ling, épouse (fort influente elle aussi) du général Tchang Kaï-chek, pion essentiel de la diplomatie américaine en Chine. Une récente biographie révèle qu'il se plaignit à son officier traitant car les exigences physiques de la dame étaient à la limite de son endurance personnelle… et se vit intimer l'injonction de continuer coûte que coûte.
 Il commence à écrire des livres en 1942 et rencontre Walt Disney. Il envisage de créer avec ce dernier une fiction autour des légendaires gremlins, créatures auxquelles les pilotes de la Royal Air Force attribuent leurs problèmes mécaniques. Mais, au vu de la situation mondiale, Disney renonce à produire ce film qui nécessiterait un tournage en Angleterre.
 Le premier récit que Dahl publie est A Piece of Cake, qui décrit son accident d'avion en Libye. L'auteur écrit notamment des nouvelles pour adultes, à l'atmosphère souvent lourde, comme Kiss Kiss.
-Après la guerre
-Certaines de ses nouvelles sont adaptées pour la télévision par Alfred Hitchcock. En 1953, il épouse l'actrice américaine Patricia Neal. Ils auront cinq enfants : Olivia, décédée en 1962 à l'âge de sept ans d'une encéphalite, Chantal-Sophia (née en 1957), mère de l'auteure et mannequin Sophie Dahl, Théo, né en 1960, Ophélia, née en 1964, et Lucy Neal, née en 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines de ses nouvelles sont adaptées pour la télévision par Alfred Hitchcock. En 1953, il épouse l'actrice américaine Patricia Neal. Ils auront cinq enfants : Olivia, décédée en 1962 à l'âge de sept ans d'une encéphalite, Chantal-Sophia (née en 1957), mère de l'auteure et mannequin Sophie Dahl, Théo, né en 1960, Ophélia, née en 1964, et Lucy Neal, née en 1965.
 Le couple subira de dures épreuves : la mort de sa fille aînée conduira Roald Dahl à abandonner la foi religieuse. Son fils Théo, dont la poussette avait été renversée par un taxi new-yorkais, restera longtemps entre la vie et la mort, souffrant d'une hydrocéphalie traumatique.
-En cette circonstance, Roald Dahl prend le taureau par les cornes : associé au neurochirurgien Kenneth Till et à l'ingénieur Stanley Wade, il fait mettre au point et breveter un dispositif médical destiné à relâcher la pression intracrânienne, la valve Wade-Dahl-Till (en) (ou valve WDT)[2] ; Théo se rétablira avant la fin de la mise au point, mais cette invention sera utilisée sur des milliers de patients. Les trois co-inventeurs refuseront de toucher des redevances.
+En cette circonstance, Roald Dahl prend le taureau par les cornes : associé au neurochirurgien Kenneth Till et à l'ingénieur Stanley Wade, il fait mettre au point et breveter un dispositif médical destiné à relâcher la pression intracrânienne, la valve Wade-Dahl-Till (en) (ou valve WDT) ; Théo se rétablira avant la fin de la mise au point, mais cette invention sera utilisée sur des milliers de patients. Les trois co-inventeurs refuseront de toucher des redevances.
 Alors qu'elle est enceinte de leur cinquième enfant, Patricia Neal Dahl sera frappée par un anévrisme cérébral aigu avec épisodes d'aphasie ; son mari prendra en main sa rééducation et lui permettra ainsi de reprendre sa carrière d'actrice.
 Le prix Edgar-Allan-Poe de la meilleure nouvelle lui est décerné deux fois : en 1954 pour Someone Like You (Bizarre ! Bizarre !), et en 1960 pour The Landlady.
-Dahl obtient en 1983 le prix World Fantasy Grand Maître et le Whitbread du meilleur roman jeunesse pour The Witches[3] (Sacrées Sorcières).
+Dahl obtient en 1983 le prix World Fantasy Grand Maître et le Whitbread du meilleur roman jeunesse pour The Witches (Sacrées Sorcières).
 Après son divorce, prononcé en 1983, il épouse en secondes noces Felicity Crosland.
-En 1989, au moment de l'affaire des Versets sataniques, il prend position contre Salman Rushdie, qu'il qualifie de « dangereux opportuniste ». Il déclare que Rushdie « devait indubitablement savoir quels sentiments profondément violents son livre susciterait auprès des musulmans. En d'autres termes, il savait exactement ce qu'il était en train de faire et ne pouvait plaider le contraire. Ce type de sensationnalisme place des livres sans grand intérêt au sommet de la pile des best-sellers, mais à mon avis c'est une manière de peu de valeur d'y parvenir[4] ».
-Antisémitisme de Roald Dahl
-En 1982, au moment de la guerre du Liban, Dahl s'indigne de la façon dont l'État d'Israël intervient à Beyrouth, dans sa préface d'un portfolio d'images de guerre réalisé par Tony Clifton et Catherine Leroy et intitulé God Cried (Les Larmes de Dieu)[5]. Ses prises de position tranchées lui vaudront d'être accusé d'antisémitisme mais les amis juifs de Dahl ne lui en tiendront pas rigueur, estimant qu'il avait réagi de façon émotionnelle[réf. nécessaire]. Un hommage est annulé par le Royal Mint pour le centenaire de sa naissance, en raison de ses multiples propos antisémites[6]. Il a en effet déclaré en 1983 : « Il existe un trait dans le caractère juif qui provoque de l’animosité, c’est peut-être une sorte de manque de générosité envers les non-juifs. Je veux dire, il y a toujours une raison pour laquelle un anti-n'importe quoi surgit quelque part ; même une ordure comme Hitler ne s’en est pas pris à eux sans raison[6]. » En 1990, il répond à l'Independent : « Je suis certainement anti-israélien et je suis devenu antisémite parce que les Juifs, dans un pays comme l'Angleterre, soutiennent fortement le sionisme. Je pense qu'ils devraient voir les deux côtés. C’est toujours la même chose : nous sommes tous au courant de ce que font les juifs, etc. Il n’y a pas d’éditeurs non-juifs, ils contrôlent les médias — ce qui est particulièrement intelligent —, c’est pourquoi le président des États-Unis doit vendre tout ce matériel à Israël[6]… » La décision du Royal Mint est saluée par différents parlementaires et représentants de la communauté juive britannique[6]. En décembre 2020, la famille de Roald Dahl formule des excuses pour les propos antisémites de l'écrivain[7],[8],[9].
-Mort et postérité
-Il meurt d'une grave maladie sanguine le 23 novembre 1990 à Oxford et est enterré dans le cimetière de Great Missenden dans le Buckinghamshire, sa résidence campagnarde où il s'était établi depuis 1954.
+En 1989, au moment de l'affaire des Versets sataniques, il prend position contre Salman Rushdie, qu'il qualifie de « dangereux opportuniste ». Il déclare que Rushdie « devait indubitablement savoir quels sentiments profondément violents son livre susciterait auprès des musulmans. En d'autres termes, il savait exactement ce qu'il était en train de faire et ne pouvait plaider le contraire. Ce type de sensationnalisme place des livres sans grand intérêt au sommet de la pile des best-sellers, mais à mon avis c'est une manière de peu de valeur d'y parvenir ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Antisémitisme de Roald Dahl</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, au moment de la guerre du Liban, Dahl s'indigne de la façon dont l'État d'Israël intervient à Beyrouth, dans sa préface d'un portfolio d'images de guerre réalisé par Tony Clifton et Catherine Leroy et intitulé God Cried (Les Larmes de Dieu). Ses prises de position tranchées lui vaudront d'être accusé d'antisémitisme mais les amis juifs de Dahl ne lui en tiendront pas rigueur, estimant qu'il avait réagi de façon émotionnelle[réf. nécessaire]. Un hommage est annulé par le Royal Mint pour le centenaire de sa naissance, en raison de ses multiples propos antisémites. Il a en effet déclaré en 1983 : « Il existe un trait dans le caractère juif qui provoque de l’animosité, c’est peut-être une sorte de manque de générosité envers les non-juifs. Je veux dire, il y a toujours une raison pour laquelle un anti-n'importe quoi surgit quelque part ; même une ordure comme Hitler ne s’en est pas pris à eux sans raison. » En 1990, il répond à l'Independent : « Je suis certainement anti-israélien et je suis devenu antisémite parce que les Juifs, dans un pays comme l'Angleterre, soutiennent fortement le sionisme. Je pense qu'ils devraient voir les deux côtés. C’est toujours la même chose : nous sommes tous au courant de ce que font les juifs, etc. Il n’y a pas d’éditeurs non-juifs, ils contrôlent les médias — ce qui est particulièrement intelligent —, c’est pourquoi le président des États-Unis doit vendre tout ce matériel à Israël… » La décision du Royal Mint est saluée par différents parlementaires et représentants de la communauté juive britannique. En décembre 2020, la famille de Roald Dahl formule des excuses pour les propos antisémites de l'écrivain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mort et postérité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt d'une grave maladie sanguine le 23 novembre 1990 à Oxford et est enterré dans le cimetière de Great Missenden dans le Buckinghamshire, sa résidence campagnarde où il s'était établi depuis 1954.
 Ses premières nouvelles (Dahl est plutôt un nouvelliste qu'un romancier) parfois osées, souvent narquoises, ont été publiées pour un public adulte dans des revues comme The New Yorker, Collier's Weekly, Ladies' Home Journal, Esquire, Harper's Magazine et Playboy.
-Il a signé le scénario du cinquième film de James Bond, On ne vit que deux fois, sorti en 1967[10], et qui comporte d'impressionnantes séquences de combat aérien.
-Ce sont pourtant ses textes destinés à un public jeune qui lui valent d'être reconnu[11]. Il publie en 1943 son premier livre pour enfants : Les Gremlins, qui inspirera très fortement le cinéaste Joe Dante, quarante ans plus tard, pour son film Gremlins[12]. Dans ses livres pour enfants, les héros sont souvent des enfants malheureux, qui prennent un jour leur revanche (parfois cruelle) sur leurs tortionnaires. L'effet est jubilatoire, et permet aussi au lecteur de relativiser ses propres problèmes.
-Réécriture des textes et controverse
-En 2023, la maison d'édition Puffin a entrepris, selon le Daily Telegraph, d'expurger les œuvres de Roald Dahl en en éliminant les mots et les expressions qui pourraient choquer les lecteurs des nouvelles générations. L'éditeur s’attaque notamment aux épithètes qualifiées de « discriminantes », qui « gêneraient les minorités sexuelles ou ethniques ». Le Daily Telegraph précise que les « rewriters » (personnes chargées de la réécriture) ajoutent parfois des passages de leur cru. La Roald Dahl Story Company, société qui représente les ayants droit de l'auteur, ne semble pas opposée à ces changements[13],[14].
-Devant la levée de boucliers, la maison d'édition Puffin annonce le 24 février 2023 qu'elle conservera une édition dite « classique » de ces textes (The Roald Dahl Classic Collection) afin de laisser aux lecteurs le choix de la version qu'ils préfèrent[15].
-En effet, d’après un article paru dans l’hebdomadaire britannique The Observer le 25 février 2023[16] et rapporté par le journal en ligne ActuaLitté le 2 mars suivant[17], cette décision de modifier les textes de Roald Dahl a suscité de vives réactions outre Manche : entre autres personnalités, Salman Rushdie parle d’une « censure idiote », quand la reine consort Camilla et jusqu’au Premier ministre Rishi Sunak, par la voix de son porte-parole, invoquent la liberté d’expression. Pire, il ressort d’un enregistrement d’une conversation effectué avec l’accord des deux locuteurs que Roald Dahl lui-même avait fait part au peintre britannique Francis Bacon, en 1982, de son opposition résolue à la réécriture ultérieure de ses textes, lors d’une discussion animée[18].
-Il apparaît que l’auteur avait déjà accepté, en revanche, d’apporter lui-même une modification à l’un de ses textes, les « pygmées noirs » de l’édition initiale de Charlie et la chocolaterie (1964) devenant à la fin des années 1960 de « petites créatures fantastiques »[17].
-En France, l’éditeur de Roald Dahl, Gallimard, a indiqué le 21 février 2023 qu’il comptait laisser intacts les textes des livres jeunesse de cet auteur britannique, malgré la réécriture de leur version anglaise « à l’initiative des ayants droit »[19].
+Il a signé le scénario du cinquième film de James Bond, On ne vit que deux fois, sorti en 1967, et qui comporte d'impressionnantes séquences de combat aérien.
+Ce sont pourtant ses textes destinés à un public jeune qui lui valent d'être reconnu. Il publie en 1943 son premier livre pour enfants : Les Gremlins, qui inspirera très fortement le cinéaste Joe Dante, quarante ans plus tard, pour son film Gremlins. Dans ses livres pour enfants, les héros sont souvent des enfants malheureux, qui prennent un jour leur revanche (parfois cruelle) sur leurs tortionnaires. L'effet est jubilatoire, et permet aussi au lecteur de relativiser ses propres problèmes.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mort et postérité</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Réécriture des textes et controverse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, la maison d'édition Puffin a entrepris, selon le Daily Telegraph, d'expurger les œuvres de Roald Dahl en en éliminant les mots et les expressions qui pourraient choquer les lecteurs des nouvelles générations. L'éditeur s’attaque notamment aux épithètes qualifiées de « discriminantes », qui « gêneraient les minorités sexuelles ou ethniques ». Le Daily Telegraph précise que les « rewriters » (personnes chargées de la réécriture) ajoutent parfois des passages de leur cru. La Roald Dahl Story Company, société qui représente les ayants droit de l'auteur, ne semble pas opposée à ces changements,.
+Devant la levée de boucliers, la maison d'édition Puffin annonce le 24 février 2023 qu'elle conservera une édition dite « classique » de ces textes (The Roald Dahl Classic Collection) afin de laisser aux lecteurs le choix de la version qu'ils préfèrent.
+En effet, d’après un article paru dans l’hebdomadaire britannique The Observer le 25 février 2023 et rapporté par le journal en ligne ActuaLitté le 2 mars suivant, cette décision de modifier les textes de Roald Dahl a suscité de vives réactions outre Manche : entre autres personnalités, Salman Rushdie parle d’une « censure idiote », quand la reine consort Camilla et jusqu’au Premier ministre Rishi Sunak, par la voix de son porte-parole, invoquent la liberté d’expression. Pire, il ressort d’un enregistrement d’une conversation effectué avec l’accord des deux locuteurs que Roald Dahl lui-même avait fait part au peintre britannique Francis Bacon, en 1982, de son opposition résolue à la réécriture ultérieure de ses textes, lors d’une discussion animée.
+Il apparaît que l’auteur avait déjà accepté, en revanche, d’apporter lui-même une modification à l’un de ses textes, les « pygmées noirs » de l’édition initiale de Charlie et la chocolaterie (1964) devenant à la fin des années 1960 de « petites créatures fantastiques ».
+En France, l’éditeur de Roald Dahl, Gallimard, a indiqué le 21 février 2023 qu’il comptait laisser intacts les textes des livres jeunesse de cet auteur britannique, malgré la réécriture de leur version anglaise « à l’initiative des ayants droit ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans pour adultes
-Sometime Never: A Fable for Supermen (1948)
-My Uncle Oswald (1979) Publié en français sous le titre Mon oncle Oswald, traduit par Alain Delahaye, Paris, Gallimard, coll. « Du monde entier », 1981 ; réédition, Paris, Gallimard, coll. « Folio » no 1745, 1986  (ISBN 2-07-037745-8)
-Romans de littérature d'enfance et de jeunesse
-La plupart de ces textes sont illustrés par Quentin Blake, illustrateur de livres pour enfants.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sometime Never: A Fable for Supermen (1948)
+My Uncle Oswald (1979) Publié en français sous le titre Mon oncle Oswald, traduit par Alain Delahaye, Paris, Gallimard, coll. « Du monde entier », 1981 ; réédition, Paris, Gallimard, coll. « Folio » no 1745, 1986  (ISBN 2-07-037745-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La plupart de ces textes sont illustrés par Quentin Blake, illustrateur de livres pour enfants.
 The Gremlins (1943)
 James and the Giant Peach (1961) Publié en français sous le titre James et la Grosse Pêche, traduit par Maxime Orange, Paris, Gallimard, coll. « La Bibliothèque blanche », 1966 (BNF 32973104) ; réédition, Paris, Gallimard, coll. « Folio junior » no 38, 1978 (BNF 34601120) ; réédition, Paris, Gallimard jeunesse, coll. « Folio junior » no 517, 2017  (ISBN 978-2-07-060161-5)
 Charlie and the Chocolate Factory (1964) Publié en français sous le titre Charlie et la Chocolaterie, traduit par Élisabeth Gaspar, Paris, Gallimard, coll. « La Bibliothèque blanche », 1967 (BNF 32973103) ; réédition, Paris, Gallimard, coll. « Folio junior » no 49, 1978 (BNF 34601118) ; réédition, Paris, Gallimard jeunesse, coll. « Folio junior » no 1666, 2013  (ISBN 978-2-07-065549-6)
@@ -605,9 +910,43 @@
 Matilda (1988) Publié en français sous le titre Matilda, traduit par Henri Robillot, Paris, Gallimard, coll. « 1000 soleils », 1988  (ISBN 2-07-050195-7) ; réédition, Paris, Gallimard, coll. « Folio junior » no 555, 1990  (ISBN 2-07-033555-0) ; réédition, Paris, Gallimard, coll. « Folio junior » no 1668, 2013  (ISBN 978-2-07-065548-9)
 Esio Trot (1990) Publié en français sous le titre Un amour de tortue, traduit par Henri Robillot, Paris, Gallimard, coll. « Folio cadet bleu » no 232, 1990  (ISBN 2-07-031232-1) ; réédition, Paris, Gallimard, coll. « Folio cadet. Premiers romans » no 232, 2014  (ISBN 978-2-07-066057-5) ; réédition, Paris, Gallimard, coll. « Folio cadet. Premier romans » no 6, 2018  (ISBN 978-2-07-509711-6)
 The Vicar of Nibbleswicke (1991) Publié en français sous le titre Le Rétrovicaire de Nibbleswicke, adapté par Yves-Marie Maquet, Paris, Gallimard, 1992  (ISBN 2-07-056743-5)
-The Minpins (1991) Publié en français sous le titre Les Minuscules, traduit par , traduit par Marie-Raymond Farré, Paris, Gallimard, 1991  (ISBN 2-07-056632-3) ; réédition, Paris, Gallimard jeunesse, coll. « Folio cadet » no 289, 2002  (ISBN 2-07-053878-8); réédition, Paris, Gallimard, coll. « Folio cadet. Premier romans » no 30, 2018  (ISBN 978-2-07-509817-5)
-Recueils de nouvelles
-Over to You: Ten Stories of Flyers and Flying (1946) Publié en français sous le titre À tire-d'aile, traduit par Jean Malignon, Paris, Julliard, 1976  (ISBN 2-260-00050-9) ; réédition, Paris, Julliard, 1994  (ISBN 2-260-00012-6) ; réédition, Paris, 10/18, coll. « Domaine étranger » no 3549, 2003  (ISBN 2-264-03434-3)
+The Minpins (1991) Publié en français sous le titre Les Minuscules, traduit par , traduit par Marie-Raymond Farré, Paris, Gallimard, 1991  (ISBN 2-07-056632-3) ; réédition, Paris, Gallimard jeunesse, coll. « Folio cadet » no 289, 2002  (ISBN 2-07-053878-8); réédition, Paris, Gallimard, coll. « Folio cadet. Premier romans » no 30, 2018  (ISBN 978-2-07-509817-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Over to You: Ten Stories of Flyers and Flying (1946) Publié en français sous le titre À tire-d'aile, traduit par Jean Malignon, Paris, Julliard, 1976  (ISBN 2-260-00050-9) ; réédition, Paris, Julliard, 1994  (ISBN 2-260-00012-6) ; réédition, Paris, 10/18, coll. « Domaine étranger » no 3549, 2003  (ISBN 2-264-03434-3)
 Someone Like You (1953)
 Publié en français sous le titre Bizarre ! Bizarre !, traduit par Élisabeth Gaspar et Hilda Barberis, Paris, Gallimard, coll. « L'Air du temps », 1962 (BNF 32973106) ; réédition, Paris, Gallimard, coll. « Folio » no 395, 1973  (ISBN 2-07-036395-3) ; nouvelle édition, Paris, Gallimard, coll. « Folio » no 395, 1988  (ISBN 2-07-036395-3)
 Kiss Kiss (1960) Publié en français sous le titre Kiss Kiss, traduit par Élisabeth Gaspar, Paris, Gallimard, coll. « L'Air du temps », 1962 (BNF 32973105) ; réédition, Paris, Gallimard, coll. « Folio » no 1029, 1978  (ISBN 2-07-037029-1)
@@ -621,9 +960,43 @@
 Two Fables (1986) Publié en français sous le titre La Princesse et le braconnier : deux contes, traduit par Henri Yvinec, Paris, Gallimard, 1988  (ISBN 2-07-071271-0) ; réédition, Paris, Gallimard, coll. « Folio bilingue » no 9, 1990  (ISBN 2-07-038316-4)
 Ah, Sweet Mystery of Life: The Country Stories of Roald Dahl (1989)
 The Roald Dahl Treasury (1997)
-Mieux vaut en rire, 12 histoires grinçantes, édité par Gallimard en édition limitée, rassemblant des histoires pour la plupart déjà parues dans Bizarre! Bizarre!, Kiss Kiss et L'Homme au parapluie et autres nouvelles : L'Homme du Sud, Gelée royale, Cou, À moi la vengeance S.A.R.L, La Logeuse, La Grande Grammatisatrice automatique, Le Maître d'hôtel, Tous les Chemins mènent au ciel, Le Connaisseur, Un Beau Dimanche, L'Homme au parapluie, Mme Bixby et le manteau du colonel.
-Nouvelles
-Man from the South (1948) Publié en français sous le titre L’homme du Sud, dans Les Œuvres libres/Fayard no 113 nouvelle série, 1955
+Mieux vaut en rire, 12 histoires grinçantes, édité par Gallimard en édition limitée, rassemblant des histoires pour la plupart déjà parues dans Bizarre! Bizarre!, Kiss Kiss et L'Homme au parapluie et autres nouvelles : L'Homme du Sud, Gelée royale, Cou, À moi la vengeance S.A.R.L, La Logeuse, La Grande Grammatisatrice automatique, Le Maître d'hôtel, Tous les Chemins mènent au ciel, Le Connaisseur, Un Beau Dimanche, L'Homme au parapluie, Mme Bixby et le manteau du colonel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Man from the South (1948) Publié en français sous le titre L’homme du Sud, dans Les Œuvres libres/Fayard no 113 nouvelle série, 1955
 The Wish (1948) Publié en français sous le titre Jeu, dans Les Chefs-d’œuvre de l’épouvante, Planète « Anthologie Planète » (sd) ; réédition sous le titre Le Souhait in Tous des sorciers !, J'ai Lu Jeunesse, 2002
 Taste (1951) Publié en français sous le titre Un Fameux Dégustateur, dans Mystère magazine no 113, 1957 ; réédition sous le titre Le Connaisseur dans Tel est pris qui croyait prendre, Gallimard, 1962
 Dip in the Pool (1952) Publié en français sous le titre En plein jus, dans Alfred Hitchcock présente : Histoires à faire peur, Robert Laffont, 1965
@@ -634,9 +1007,43 @@
 Parson’s Pleasure (1958)Publié en français sous le titre Un Beau Dimanche, À vue d’œil, 2000
 Royal Jelly (1959) Publié en français sous le titre Gelée royale dans Alfred Hitchcock présente : Histoires à lire toutes portes closes, Presses Pocket no 1815, 1980
 My Lady Love, My Dove (1958) Publié en français sous le titre Mon Amour, mon petit pigeon, dans Les Œuvres libres/Fayard no 113 nouvelle série, 1955
-Spotty Powder (1998) Publié en français sous le titre La Poudre à boutons, dans Nuit blanche, Hachette-Livre, 1999
-Recueils de nouvelles pour la jeunesse
-L’Enfant qui parlait aux animaux (sans équivalent en anglais), Paris, Gallimard jeunesse, 1981
+Spotty Powder (1998) Publié en français sous le titre La Poudre à boutons, dans Nuit blanche, Hachette-Livre, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L’Enfant qui parlait aux animaux (sans équivalent en anglais), Paris, Gallimard jeunesse, 1981
 Revolting RhymesUn conte peut en cacher un autre (1982), recueil de contes détournés écrits en vers Publié en français sous le titre Un Conte peut en cacher un autre, Paris, Gallimard jeunesse, 1982
 Dirty Beasts (1983) Publié en français sous le titre Sales Bêtes !, Paris, Gallimard jeunesse, coll. « Folio cadet » no 14, 1984
 Le Cygne suivi de La Merveilleuse histoire de Henry Sugar (sans équivalent en anglais), Paris, Gallimard jeunesse, coll. « Folio Junior/Piranha » no 361, 1986
@@ -644,24 +1051,194 @@
 Skin and Other Stories (1991) Publié en français sous le titre Mauvaises intentions : neuf histoires à faire frémir, Paris, Gallimard jeunesse, coll. « Hors série littérature », 2000 ; (contient : Coup de gigot, Foxley le Galopant, Peau, Jeu, La Machine à capter les sons, Plouf ! et Ma Blanche colombe déjà publiées dans Bizarre ! Bizarre !, ainsi que Le Chirurgien, Le Champion du monde déjà publiée dans Kiss Kiss)
 Lamb to the Slaughter (1962), réécriture de la nouvelle de 1953 Publié en français sous le titre Coup de gigot et autres histoires à faire peur, Paris, Gallimard jeunesse, coll. « Folio junior » no 1181, 2003 ; (contient quatre histoires : Coup de gigot déjà publiée dans Bizarre ! Bizarre !, ainsi que Tous les chemins mènent au ciel, La Logeuse et William et Mary déjà publiées dans Kiss Kiss)
 Coup de chance et autres nouvelles, Paris, Gallimard, coll. « Scripto », 2009 ; (contient quatre nouvelles : Le Cygne, La Merveilleuse histoire de Henry Sugar déjà publiées dans Le Cygne, Paris, Gallimard, coll. « Folio Junior » no 361, 1986  (ISBN 2-07-033361-2), ainsi que Coup de chance et C'est du gâteau)
-Tel est pris qui croyait prendre, Paris, Gallimard jeunesse, coll. « Folio junior », 2010 ; (contient quatre nouvelles : Le Connaisseur déjà publiée dans Bizarre ! Bizarre !, ainsi que Madame Bixby et le manteau du colonel, Le Champion du monde et Un Beau Dimanche déjà publiées dans Kiss Kiss)
-Direction d'anthologie
-Roald Dahl’s Book of Ghost Stories (1983) Publié en français sous le titre Histoires de fantômes, Paris, Hachette-Jeunesse, coll. « Le Livre de Poche Jeunesse / Senior » no 209, 1985
-Autobiographies
-Boy : Tales of Chilhood (1984), récit autobiographique de son enfance jusqu'à ses années au collège Publié en français sous le titre Moi, Boy : souvenirs d’enfance, Paris, Gallimard jeunesse, coll. « 1000 soleils », 1985
-Going Solo (1986), suite de son autobiographie, dans laquelle il évoque les paysages d'Afrique qu'il a survolés alors qu'il était pilote à la Royal Air Force Publié en français sous le titre Escadrille 80, Paris, Gallimard jeunesse, coll. « 1000 soleils », 1986
-Autres publications
-The Dahl Diary (1992) Publié en français sous le titre Le Livre de l’année, Paris, Gallimard jeunesse, coll. « Lecture Junior » no 14, 1992
+Tel est pris qui croyait prendre, Paris, Gallimard jeunesse, coll. « Folio junior », 2010 ; (contient quatre nouvelles : Le Connaisseur déjà publiée dans Bizarre ! Bizarre !, ainsi que Madame Bixby et le manteau du colonel, Le Champion du monde et Un Beau Dimanche déjà publiées dans Kiss Kiss)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Direction d'anthologie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Roald Dahl’s Book of Ghost Stories (1983) Publié en français sous le titre Histoires de fantômes, Paris, Hachette-Jeunesse, coll. « Le Livre de Poche Jeunesse / Senior » no 209, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Autobiographies</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Boy : Tales of Chilhood (1984), récit autobiographique de son enfance jusqu'à ses années au collège Publié en français sous le titre Moi, Boy : souvenirs d’enfance, Paris, Gallimard jeunesse, coll. « 1000 soleils », 1985
+Going Solo (1986), suite de son autobiographie, dans laquelle il évoque les paysages d'Afrique qu'il a survolés alors qu'il était pilote à la Royal Air Force Publié en français sous le titre Escadrille 80, Paris, Gallimard jeunesse, coll. « 1000 soleils », 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Dahl Diary (1992) Publié en français sous le titre Le Livre de l’année, Paris, Gallimard jeunesse, coll. « Lecture Junior » no 14, 1992
 Roald Dahl’s Revolting Recipes (1994) Publié en français sous le titre Les Irrésistibles Recettes de Roald Dahl, recettes compilées par Josie Fison et Felicity Dahl, Paris, Gallimard jeunesse, 1995
 The Roald Dahl Treasury (1997) Publié en français sous le titre Le Grand Livre de Roald Dahl, Paris, Gallimard jeunesse, coll. « Hors série Littérature », 1998
-Even More Revolting Recipes (2001) Publié en français sous le titre Les Nouvelles Recettes irrésistibles, recettes de Lori-Ann Newman, Paris, Gallimard jeunesse, 2002
-Recueils de nouvelles en version originale
-Someone Like You and Other Short Stories, Paris, LGF, coll. « Le Livre de poche. Série Lire en anglais » no 8605, 1988
+Even More Revolting Recipes (2001) Publié en français sous le titre Les Nouvelles Recettes irrésistibles, recettes de Lori-Ann Newman, Paris, Gallimard jeunesse, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles en version originale</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Someone Like You and Other Short Stories, Paris, LGF, coll. « Le Livre de poche. Série Lire en anglais » no 8605, 1988
 The Hitch-Hiker and Other Short Stories / L’Auto-stoppeur et autres nouvelles, Paris, LGF, coll. « Le Livre de poche. Série Lire en anglais » no 8610, 1989
 M.. Botibol and Other Stories, Paris, LGF, coll. « Le Livre de poche. Série Lire en anglais » no 8665, 1992
-The Princess and the Poacher / La Princesse et le braconnier, Paris, Gallimard, coll. « Folio bilingue » no 9, 1990
-Pièces de théâtre
-Il s'agit d'adaptations pour le théâtre de romans de Roald Dahl.
+The Princess and the Poacher / La Princesse et le braconnier, Paris, Gallimard, coll. « Folio bilingue » no 9, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Il s'agit d'adaptations pour le théâtre de romans de Roald Dahl.
 Charlie et la chocolaterie (1976). Adapt. et proposition de mise en scène Richard R. George ; introd. Roald Dahl ; traduit par Jean Esch, Paris, Gallimard jeunesse, coll. « Folio junior » no 1235 / Théâtre no 14, septembre 2002
 James et la grosse pêche (1982). Adapt. et proposition de mise en scène Richard R. George ; introd. Roald Dahl ; traduit par Jean Esch, Paris, Gallimard jeunesse, coll. « Folio junior » no 1272 / Théâtre no 16, mars 2003
 Charlie et le grand ascenseur de verre (1984). Adapt. et proposition de mise en scène Richard R. George ; introd. Roald Dahl ; traduit par Jean Esch, Paris, Gallimard jeunesse, coll. « Folio junior » no 1426 / Théâtre no 23, octobre 2006
@@ -669,70 +1246,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Quelques-unes de ses récompenses :
 1954 : prix Edgar-Allan-Poe de la meilleure nouvelle pour Bizarre ! Bizarre ! (Someone Like You)
 1960 : prix Edgar-Allan-Poe de la meilleure nouvelle pour Landlady
 1976 : grand prix de l’humour noir pour La Grande Entourloupe (Switch Bitch, 1974)
 1983 : prix World Fantasy Grand Maître pour Fantastique Maître Renard
-1983 : Whitbread du meilleur roman jeunesse pour The Witches[3] (Sacrées Sorcières).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+1983 : Whitbread du meilleur roman jeunesse pour The Witches (Sacrées Sorcières).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cinéma
-Films tirés des œuvres de Roald Dahl
-1965 : 36 heures avant le débarquement (36 Hours), film américain réalisé par George Seaton, d'après la nouvelle Beware of the Dog
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Films tirés des œuvres de Roald Dahl</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1965 : 36 heures avant le débarquement (36 Hours), film américain réalisé par George Seaton, d'après la nouvelle Beware of the Dog
 1971 : Charlie et la chocolaterie (Willy Wonka and the Chocolate Factory), film américain réalisé par Mel Stuart
 1989 : Le BGG (The BFG), film d'animation britannique réalisé par Brian Cosgrove
 1990 : Les Sorcières (The Witches), film britannique réalisé par Nicolas Roeg
@@ -741,37 +1328,226 @@
 2005 : Charlie et la chocolaterie (Charlie and the Chocolate Factory), film américain réalisé par Tim Burton
 2009 : Fantastic Mr. Fox, film d'animation américain réalisé par Wes Anderson
 2016 : Le Bon Gros Géant (The BFG), film américain réalisé par Steven Spielberg
-2016 : Un conte peut en cacher un autre, film britannique d'animation réalisé par Jakob Schuh et Jan Lachauer[20]
+2016 : Un conte peut en cacher un autre, film britannique d'animation réalisé par Jakob Schuh et Jan Lachauer
 2017 : Tom et Jerry au pays de Charlie et la chocolaterie (Tom and Jerry: Willy Wonka and the Chocolate Factory), film d'animation américain de Spike Brandt
 2020 : Sacrées Sorcières (The Witches), film américain de Robert Zemeckis
 2022 : Matilda (Roald Dahl's Matilda the Musical), film américano-britannique de Matthew Warchus
 2023 : La Merveilleuse Histoire de Henry Sugar (The Wonderful Story of Henry Sugar), Le Cygne (The Swan), Le Preneur de rats (Ratcatcher) et Venin (Poison), quatre court-métrages américain de Wes Anderson
-2023 : Wonka de Paul King, film américano-britannique préquelle du roman Charlie et la chocolaterie
-Films tirés des scénarios de Roald Dahl
-1968 : Chitty Chitty Bang Bang, film musical britannique réalisé par Ken Hughes, scénario de Roald Dahl d’après un conte de Ian Fleming
+2023 : Wonka de Paul King, film américano-britannique préquelle du roman Charlie et la chocolaterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Films tirés des scénarios de Roald Dahl</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1968 : Chitty Chitty Bang Bang, film musical britannique réalisé par Ken Hughes, scénario de Roald Dahl d’après un conte de Ian Fleming
 1968 : On ne vit que deux fois (You Only Live Twice), film britannique réalisé par Lewis Gilbert, scénario de Roald Dahl d’après le roman de Ian Fleming
-1971 : The Night Digger, film américain réalisé par Alastair Reid, scénario de Roald Dahl d'après le roman de Joy Cowley
-Télévision
-Téléfilms
-1989 : Danny, le champion du monde (Danny the Champion of the World), téléfilm américain réalisé par Gavin Millar, scénario de John Goldsmith
+1971 : The Night Digger, film américain réalisé par Alastair Reid, scénario de Roald Dahl d'après le roman de Joy Cowley</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1989 : Danny, le champion du monde (Danny the Champion of the World), téléfilm américain réalisé par Gavin Millar, scénario de John Goldsmith
 1989 : Breaking Point, téléfilm américain réalisé par Peter Markle, d'après la nouvelle Beware of the Dog
-2015 : Un amour de tortue (Roald Dahl's Esio Trot), téléfilm britannique de Dearbhla Walsh
-Épisodes de la série Alfred Hitchcock présente
-1958 : Lamb to the Slaughter (L’inspecteur se met à table, série Alfred Hitchcock présente no 106 ; épisode 28 de la 3e saison)
+2015 : Un amour de tortue (Roald Dahl's Esio Trot), téléfilm britannique de Dearbhla Walsh</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Épisodes de la série Alfred Hitchcock présente</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1958 : Lamb to the Slaughter (L’inspecteur se met à table, série Alfred Hitchcock présente no 106 ; épisode 28 de la 3e saison)
 1958 : A Dip in the Pool (inédit en France, série Alfred Hitchcock présente no 111 ; épisode 35 de la 3e saison)
 1958 : Poison (Poison, série Alfred Hitchcock présente no 116 ; épisode 1 de la 4e saison)
 1960 : Man From the South (L’Homme du Sud, série Alfred Hitchcock présente no 166 ; épisode 15 de la 5e saison)
 1960 : Mrs. Bixby and the Colonel's Coat (Le Manteau, série Alfred Hitchcock présente no 190 ; épisode 1 de la 6e saison)
-1961 : The Landlady (inédit en France, série Alfred Hitchcock présente no 208 ; épisode 19 de la 6e saison)
-Épisodes de la série Bizarre, bizarre
-1979 : Pour un doigt (Man From the South), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 1)
+1961 : The Landlady (inédit en France, série Alfred Hitchcock présente no 208 ; épisode 19 de la 6e saison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Épisodes de la série Bizarre, bizarre</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1979 : Pour un doigt (Man From the South), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 1)
 1979 : Chez ma tante (Mrs Bixby and the Colonel's Coat), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 2)
 1979 : William and Mary, série Bizarre, Bizarre (Tales of the Unexpected) – saison 1 , no 3)
 1979 : Un Os dans le gigot (Lamb to the Slaughter), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 4)
 1979 : L'Homme de paille (The Landlady), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 5)
-1979 : Tel est pris (Neck), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 6)
-Épisode de la série Alfred Hitchcock présente (II)
-1985 : Pilot (section 2 : Man From the South (L’Homme du Sud, série Alfred Hitchcock présente (Alfred Hitchcock Presents) – épisode 0 de la 1re saison)</t>
+1979 : Tel est pris (Neck), série Bizarre, Bizarre (Tales of the Unexpected) – saison 1, no 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roald_Dahl</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Épisode de la série Alfred Hitchcock présente (II)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1985 : Pilot (section 2 : Man From the South (L’Homme du Sud, série Alfred Hitchcock présente (Alfred Hitchcock Presents) – épisode 0 de la 1re saison)</t>
         </is>
       </c>
     </row>
